--- a/biology/Écologie/Robert_MacArthur/Robert_MacArthur.xlsx
+++ b/biology/Écologie/Robert_MacArthur/Robert_MacArthur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Helmer MacArthur (né le 7 avril 1930 à Toronto (Ontario), mort le 1er novembre 1972) fut un mathématicien et écologue américain.
 Mathématicien de formation, il était professeur de biologie à l'université de Princeton.
-MacArthur a été successivement professeur de mathématiques appliquées à l'université de Pennsylvanie (1958–65) et professeur de biologie mathématique à l'université de Princeton (1965-72). Il a dégagé les principes de la différenciation de niche. Son essai Theory of Island Biogeography (1967), écrit en collaboration avec Edward O. Wilson, a renouvelé la biogéographie, l'équilibre dynamique des populations insulaires et le concept de communauté biotique, et a ouvert la voie à l'écologie du paysage. Par l'emploi systématique des tests d'hypothèse, il a tiré l'écologie de l'étape simplement descriptive pour en faire une véritable science expérimentale, et permettre l'émergence de l'écologie théorique[1],[2],[3].
+MacArthur a été successivement professeur de mathématiques appliquées à l'université de Pennsylvanie (1958–65) et professeur de biologie mathématique à l'université de Princeton (1965-72). Il a dégagé les principes de la différenciation de niche. Son essai Theory of Island Biogeography (1967), écrit en collaboration avec Edward O. Wilson, a renouvelé la biogéographie, l'équilibre dynamique des populations insulaires et le concept de communauté biotique, et a ouvert la voie à l'écologie du paysage. Par l'emploi systématique des tests d'hypothèse, il a tiré l'écologie de l'étape simplement descriptive pour en faire une véritable science expérimentale, et permettre l'émergence de l'écologie théorique.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Robert H. MacArthur &amp; Edward O. Wilson, "An equilibrium theory of insular zoogeography", Evolution, Vol. 17, No.4, 1963, p. 373-387.
 Robert H. MacArthur &amp; Edward O. Wilson, The Theory of Island Biogeography, Princeton University Press, Princeton (New Jersey), 1967, 203 p.  (ISBN 0-691-08049-6)</t>
